--- a/biology/Botanique/Ribes_menziesii/Ribes_menziesii.xlsx
+++ b/biology/Botanique/Ribes_menziesii/Ribes_menziesii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ribes menziesii est une espèce de groseillier (famille des Grossulariacées), originaire des États-Unis.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste de moins de 2 m de haut, au feuillage caduc.
 Les fleurs, en avril, sont teintées de rouge.
@@ -544,11 +558,13 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette espèce a été dédiée à Archibald Menzies, botaniste britannique, qui a herborisé en Amérique du Nord au début du XIXe siècle.
 Un synonyme est répertorié : Grossularia menziesii (Pursh) Coville &amp; Britton
-De plus, cette espèce dispose de nombreuses variétés, sous-espèces et synonymes de ces variétés et sous-espèces[1] :
+De plus, cette espèce dispose de nombreuses variétés, sous-espèces et synonymes de ces variétés et sous-espèces :
 Ribes menziesii var. amarum (McClatchie) Jancz (1907) : voir Ribes amarum McClatchie - synonymes : Grossularia amara (McClatchie) Coville &amp; Britton, Ribes hesperium var. amarum (McClatchie) Parish
 Ribes menziesii var. faustum Jeps. (1936)
 Ribes menziesii var. hesperium (McClatchie) Jeps. (1936) : voir Ribes californicum var. hesperium (McClatchie) Jeps. - synonymes : Grossularia hesperia (McClatchie) Coville &amp; Britton, Ribes californicum subsp. hesperium (McClatchie) Thorne, Ribes hesperium McClatchie, Ribes occidentale var. hesperium (McClatchie) Jancz.
@@ -589,7 +605,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une utilisation ornementale pour sa floraison est la plus courante pour cette espèce.
 Les fruits, épluchés car très velus, peuvent être consommés.
